--- a/docs/Eca-PaaS-Naming.xlsx
+++ b/docs/Eca-PaaS-Naming.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\customers\ECA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD3318E-7812-4F7E-983F-562A6194B914}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC04BF83-A482-42F1-BE25-5BA250458091}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="11625" xr2:uid="{E163B3BD-1EE7-49AA-90E9-26A9FB42B0FE}"/>
   </bookViews>
@@ -596,14 +596,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F37BD71-A63E-4FDC-935E-F53CD02684F4}">
   <dimension ref="B1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.265625" customWidth="1"/>
+    <col min="3" max="3" width="48.73046875" customWidth="1"/>
     <col min="4" max="4" width="26.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/docs/Eca-PaaS-Naming.xlsx
+++ b/docs/Eca-PaaS-Naming.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\customers\ECA\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC04BF83-A482-42F1-BE25-5BA250458091}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6617E2-DA97-41CC-BFDF-8EE0F26CF442}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="11625" xr2:uid="{E163B3BD-1EE7-49AA-90E9-26A9FB42B0FE}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>API App</t>
   </si>
   <si>
-    <t xml:space="preserve">Function app </t>
-  </si>
-  <si>
     <t>Storage Queue:-</t>
   </si>
   <si>
@@ -51,9 +48,6 @@
     <t>Table Name</t>
   </si>
   <si>
-    <t>Schedular Job Collection</t>
-  </si>
-  <si>
     <t>Scheduled job</t>
   </si>
   <si>
@@ -66,15 +60,9 @@
     <t>Resource Group</t>
   </si>
   <si>
-    <t>Function</t>
-  </si>
-  <si>
     <t>CosmosDB DatabaseId</t>
   </si>
   <si>
-    <t>CosmosDB CollectionId</t>
-  </si>
-  <si>
     <t>Web App</t>
   </si>
   <si>
@@ -87,151 +75,163 @@
     <t>storage Account</t>
   </si>
   <si>
-    <t>&lt;dept/area&gt;-app-plan-&lt;name&gt;-&lt;environment&gt;</t>
-  </si>
-  <si>
     <t>API Management</t>
   </si>
   <si>
-    <t>&lt;dept\area&gt;apim&lt;environment&gt;&lt;num&gt;</t>
-  </si>
-  <si>
     <t>Application insites</t>
   </si>
   <si>
     <t>Key Vault</t>
   </si>
   <si>
-    <t>&lt;dept/area&gt;-job-collection-&lt;name&gt;-&lt;environment&gt;-&lt;num&gt;</t>
-  </si>
-  <si>
-    <t>&lt;dept/area&gt;-job-item-&lt;name&gt;-&lt;environment&gt;-&lt;num&gt;</t>
-  </si>
-  <si>
-    <t>&lt;dept\area&gt;-func-app-&lt;name&gt;&lt;environment&gt;</t>
-  </si>
-  <si>
-    <t>&lt;dept\area&gt;-rg-&lt;name&gt;-&lt;environment&gt;</t>
-  </si>
-  <si>
-    <t>&lt;dept\area&gt;logic-app-&lt;name&gt;&lt;environment&gt;</t>
-  </si>
-  <si>
-    <t>&lt;dept\area&gt;-func-&lt;name&gt;-&lt;environment&gt;-num</t>
-  </si>
-  <si>
-    <t>&lt;dept\area&gt;-&lt;table&gt;-&lt;name&gt;-&lt;environment&gt;-&lt;num&gt;</t>
-  </si>
-  <si>
-    <t>&lt;dept\area&gt;storage&lt;name&gt;&lt;environment&gt;&lt;num&gt;</t>
-  </si>
-  <si>
-    <t>&lt;dept\area&gt;-&lt;storage-queue&gt;-&lt;name&gt;-&lt;environment&gt;</t>
-  </si>
-  <si>
-    <t>&lt;dept\area&gt;&lt;sb-queue&gt;-&lt;name&gt;-&lt;environment&gt;-</t>
-  </si>
-  <si>
-    <t>&lt;dept\area&gt;&lt;sb-topic&gt;-&lt;environment&gt;-&lt;name&gt;</t>
-  </si>
-  <si>
-    <t>&lt;dept\area&gt;&lt;sb-subscription&gt;-&lt;environment&gt;-&lt;name&gt;</t>
-  </si>
-  <si>
-    <t>&lt;dept\area&gt;-cosmosdb-acct-&lt;environment&gt;-&lt;num&gt;</t>
-  </si>
-  <si>
-    <t>&lt;dept\area&gt;-cosmosdb-coll-&lt;name&gt;-&lt;environment&gt;-&lt;num&gt;</t>
-  </si>
-  <si>
-    <t>&lt;dept\area&gt;-cosmosdb-db-&lt;name&gt;&lt;environment&gt;-&lt;num&gt;</t>
-  </si>
-  <si>
-    <t>&lt;dept\area&gt;-api-app-&lt;name&gt;-&lt;environment&gt;-&lt;num&gt;</t>
-  </si>
-  <si>
-    <t>&lt;dept\area&gt;-web-app-&lt;name&gt;-&lt;environment&gt;-&lt;num&gt;</t>
-  </si>
-  <si>
-    <t>&lt;dept\area&gt;-sql-azure-srv-&lt;name&gt;&lt;environment&gt;-&lt;num&gt;</t>
-  </si>
-  <si>
-    <t>&lt;dept\area&gt;-sql-azure-db-&lt;name&gt;&lt;environment&gt;-&lt;num&gt;</t>
-  </si>
-  <si>
-    <t>&lt;dept/area&gt;-app-insites-&lt;name&gt;&lt;environment&gt;-&lt;num&gt;</t>
-  </si>
-  <si>
-    <t>&lt;dept\area&gt;kv-&lt;name&gt;-&lt;environment&gt;&lt;num&gt;</t>
-  </si>
-  <si>
-    <t>eca-sb-subs-ct-dev</t>
-  </si>
-  <si>
-    <t>eca-cosmosdb-acct-dev-01</t>
-  </si>
-  <si>
-    <t>eca-cosmosdb-db-ct-dev-01</t>
-  </si>
-  <si>
-    <t>eca-cosmosdb-coll-ct-dev-01</t>
-  </si>
-  <si>
-    <t>eca-api-app-ct-dev-01</t>
-  </si>
-  <si>
-    <t>eca-rg-ct-dev</t>
-  </si>
-  <si>
-    <t>eca-func-app-ct-dev</t>
-  </si>
-  <si>
-    <t>eca-func-calculate-ct-dev-01</t>
-  </si>
-  <si>
-    <t>eca-logic-app-email-sender-dev</t>
-  </si>
-  <si>
-    <t>eca-table-ct-dev-01</t>
-  </si>
-  <si>
-    <t>ecastoragectdev01</t>
-  </si>
-  <si>
-    <t>eca-storage-queue-ct-dev</t>
-  </si>
-  <si>
-    <t>eca-sb-queue-ct-dev</t>
-  </si>
-  <si>
-    <t>eca-sb-topic-ct-dev-01</t>
-  </si>
-  <si>
-    <t>eca-web-app-ct-dev-01</t>
-  </si>
-  <si>
-    <t>eca-sql-azure-srv-ct-dev-01</t>
-  </si>
-  <si>
-    <t>eca-sql-azure-db-ct-dev-01</t>
-  </si>
-  <si>
-    <t>eca-app-plan-ct-dev</t>
-  </si>
-  <si>
-    <t>eca-job-collection-ct-dev-01</t>
-  </si>
-  <si>
-    <t>eca-job-item-ct-dev-01</t>
-  </si>
-  <si>
-    <t>ecaapimdev01</t>
-  </si>
-  <si>
-    <t>eca-app-insites-ct-dev-01</t>
-  </si>
-  <si>
-    <t>eca-kv-ct-dev-01</t>
+    <t xml:space="preserve">Funxyzion app </t>
+  </si>
+  <si>
+    <t>Funxyzion</t>
+  </si>
+  <si>
+    <t>CosmosDB CollexyzionId</t>
+  </si>
+  <si>
+    <t>Schedular Job Collexyzion</t>
+  </si>
+  <si>
+    <t>&lt;dept\area&gt;-func-&lt;name&gt;-&lt;environment&gt;-&lt;region&gt;-&lt;num&gt;</t>
+  </si>
+  <si>
+    <t>&lt;dept\area&gt;logic-app-&lt;name&gt;&lt;environment&gt;-&lt;region&gt;-&lt;num&gt;</t>
+  </si>
+  <si>
+    <t>&lt;dept\area&gt;-&lt;table&gt;-&lt;name&gt;-&lt;environment&gt;-&lt;region&gt;-&lt;num&gt;</t>
+  </si>
+  <si>
+    <t>&lt;dept\area&gt;-&lt;storage-queue&gt;-&lt;name&gt;-&lt;environment&gt;-&lt;region&gt;-&lt;num&gt;</t>
+  </si>
+  <si>
+    <t>&lt;dept\area&gt;&lt;sb-queue&gt;-&lt;name&gt;-&lt;environment&gt;-&lt;region&gt;-&lt;num&gt;</t>
+  </si>
+  <si>
+    <t>&lt;dept\area&gt;&lt;sb-topic&gt;-&lt;name&gt;-&lt;environment&gt;-&lt;region&gt;-&lt;num&gt;</t>
+  </si>
+  <si>
+    <t>&lt;dept\area&gt;&lt;sb-subs&gt;-&lt;name&gt;&lt;environment&gt;-&lt;region&gt;-&lt;num&gt;</t>
+  </si>
+  <si>
+    <t>&lt;dept\area&gt;-cosmosdb-act-&lt;name&gt;-&lt;environment&gt;-&lt;region&gt;-&lt;num&gt;</t>
+  </si>
+  <si>
+    <t>&lt;dept\area&gt;-cosmosdb-db-&lt;name&gt;&lt;environment&gt;-&lt;region&gt;-&lt;num&gt;</t>
+  </si>
+  <si>
+    <t>&lt;dept\area&gt;-cosmosdb-coll-&lt;name&gt;-&lt;environment&gt;-&lt;region&gt;-&lt;num&gt;</t>
+  </si>
+  <si>
+    <t>&lt;dept\area&gt;-api-app-&lt;name&gt;-&lt;environment&gt;-&lt;region&gt;-&lt;num&gt;</t>
+  </si>
+  <si>
+    <t>&lt;dept\area&gt;-web-app-&lt;name&gt;-&lt;environment&gt;-&lt;region&gt;-&lt;num&gt;</t>
+  </si>
+  <si>
+    <t>&lt;dept\area&gt;-sql-azure-srv-&lt;name&gt;&lt;environment&gt;-&lt;region&gt;-&lt;num&gt;</t>
+  </si>
+  <si>
+    <t>&lt;dept\area&gt;-sql-azure-db-&lt;name&gt;&lt;environment&gt;-&lt;region&gt;-&lt;num&gt;</t>
+  </si>
+  <si>
+    <t>&lt;dept/area&gt;-app-plan-&lt;name&gt;-&lt;environment&gt;-&lt;region&gt;-&lt;num&gt;</t>
+  </si>
+  <si>
+    <t>&lt;dept/area&gt;-job-collexyzion-&lt;name&gt;-&lt;environment&gt;-&lt;region&gt;-&lt;num&gt;</t>
+  </si>
+  <si>
+    <t>&lt;dept/area&gt;-job-item-&lt;name&gt;-&lt;environment&gt;-&lt;region&gt;-&lt;num&gt;</t>
+  </si>
+  <si>
+    <t>&lt;dept\area&gt;apim&lt;name&gt;&lt;environment&gt;-&lt;region&gt;-&lt;num&gt;</t>
+  </si>
+  <si>
+    <t>&lt;dept/area&gt;-app-insites-&lt;name&gt;&lt;environment&gt;-&lt;region&gt;-&lt;num&gt;</t>
+  </si>
+  <si>
+    <t>&lt;dept\area&gt;kv-&lt;name&gt;-&lt;environment&gt;-&lt;region&gt;-&lt;num&gt;</t>
+  </si>
+  <si>
+    <t>&lt;dept\area&gt;-rg-&lt;name&gt;-&lt;environment&gt;-&lt;region&gt;-&lt;num&gt;</t>
+  </si>
+  <si>
+    <t>eca-rg-xyz-dev-west-europe</t>
+  </si>
+  <si>
+    <t>eca-func-app-xyz-dev-west-europe</t>
+  </si>
+  <si>
+    <t>eca-func-calculate-xyz-dev-west-europe-01</t>
+  </si>
+  <si>
+    <t>eca-logic-app-email-sender-dev-west-europe</t>
+  </si>
+  <si>
+    <t>eca-table-xyz-dev-west-europe-01</t>
+  </si>
+  <si>
+    <t>eca-storage-queue-xyz-dev-west-europe</t>
+  </si>
+  <si>
+    <t>eca-sb-queue-xyz-dev-west-europe</t>
+  </si>
+  <si>
+    <t>eca-sb-subs-xyz-dev-west-europe</t>
+  </si>
+  <si>
+    <t>eca-cosmosdb-acxyz-dev-west-europe-01</t>
+  </si>
+  <si>
+    <t>eca-cosmosdb-db-xyz-dev-west-europe--01</t>
+  </si>
+  <si>
+    <t>eca-cosmosdb-coll-xyz-dev-west-europe-01</t>
+  </si>
+  <si>
+    <t>eca-api-app-xyz-dev-west-europe--01</t>
+  </si>
+  <si>
+    <t>eca-web-app-xyz-dev-west-europe-01</t>
+  </si>
+  <si>
+    <t>eca-sql-azure-srv-xyz-dev-west-europe-01</t>
+  </si>
+  <si>
+    <t>eca-sql-azure-db-xyz-dev-west-europe-01</t>
+  </si>
+  <si>
+    <t>eca-app-plan-xyz-dev-west-europe</t>
+  </si>
+  <si>
+    <t>eca-job-collexyzion-xyz-dev-west-europe-01</t>
+  </si>
+  <si>
+    <t>eca-job-item-xyz-dev-west-europe-01</t>
+  </si>
+  <si>
+    <t>ecaapimdevwesteurope01</t>
+  </si>
+  <si>
+    <t>eca-app-insites-xyz-dev-west-europe-01</t>
+  </si>
+  <si>
+    <t>eca-kv-xyz-dev-west-europe-01</t>
+  </si>
+  <si>
+    <t>&lt;dept\area&gt;-func-app-&lt;name&gt;&lt;environment&gt;-&lt;region&gt;-&lt;num&gt;</t>
+  </si>
+  <si>
+    <t>&lt;dept\area&gt;storage&lt;name&gt;&lt;environment&gt;&lt;region&gt;&lt;num&gt;</t>
+  </si>
+  <si>
+    <t>ecastoragexyzdevwesteurope01</t>
+  </si>
+  <si>
+    <t>eca-sb-topic-xyz-dev-west-europe-01</t>
   </si>
 </sst>
 </file>
@@ -596,48 +596,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F37BD71-A63E-4FDC-935E-F53CD02684F4}">
   <dimension ref="B1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.73046875" customWidth="1"/>
-    <col min="4" max="4" width="26.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.265625" customWidth="1"/>
+    <col min="4" max="4" width="42.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -660,13 +660,13 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -674,24 +674,24 @@
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -702,10 +702,10 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -716,10 +716,10 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -727,13 +727,13 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -741,35 +741,35 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -780,10 +780,10 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -791,13 +791,13 @@
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -805,24 +805,24 @@
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -830,13 +830,13 @@
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.55000000000000004">
@@ -844,57 +844,57 @@
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D32" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D33" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D35" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C37" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D37" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C39" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D39" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
